--- a/in/OW.xlsx
+++ b/in/OW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="629">
   <si>
     <t>Name</t>
   </si>
@@ -480,21 +480,126 @@
     <t>Mercy</t>
   </si>
   <si>
+    <t>Sympathetic Recovery</t>
+  </si>
+  <si>
+    <t>Aneglic Descent</t>
+  </si>
+  <si>
+    <t>Caduceus Staff</t>
+  </si>
+  <si>
+    <t>Caduceus Blaster</t>
+  </si>
+  <si>
+    <t>Gaurdian Angel</t>
+  </si>
+  <si>
+    <t>Resurrect</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
     <t>Moira</t>
   </si>
   <si>
+    <t>Biotic Grasp</t>
+  </si>
+  <si>
+    <t>Biotic Grasp Alt Fire</t>
+  </si>
+  <si>
+    <t>Biotic Orb</t>
+  </si>
+  <si>
+    <t>Fade</t>
+  </si>
+  <si>
+    <t>Coalescence</t>
+  </si>
+  <si>
     <t>Orisa</t>
   </si>
   <si>
+    <t>Augmented Fusion Driver</t>
+  </si>
+  <si>
+    <t>Energy Javelin</t>
+  </si>
+  <si>
+    <t>Fortify</t>
+  </si>
+  <si>
+    <t>Javelin Spin</t>
+  </si>
+  <si>
+    <t>Terra Surge</t>
+  </si>
+  <si>
     <t>Pharah</t>
   </si>
   <si>
+    <t>Hover Jets</t>
+  </si>
+  <si>
+    <t>Rocket Launcher</t>
+  </si>
+  <si>
+    <t>Jet Dash</t>
+  </si>
+  <si>
+    <t>Jump Jet</t>
+  </si>
+  <si>
+    <t>Concussive Blast</t>
+  </si>
+  <si>
+    <t>Barrage</t>
+  </si>
+  <si>
     <t>Ramattra</t>
   </si>
   <si>
+    <t>Void Accelerator</t>
+  </si>
+  <si>
+    <t>Void Barrier</t>
+  </si>
+  <si>
+    <t>Nemesis Form</t>
+  </si>
+  <si>
+    <t>Pummel</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Ravenous Vortex</t>
+  </si>
+  <si>
+    <t>Annihilation</t>
+  </si>
+  <si>
     <t>Reaper</t>
   </si>
   <si>
+    <t>The Reaping</t>
+  </si>
+  <si>
+    <t>Hellfire Shotgun</t>
+  </si>
+  <si>
+    <t>Wraith Form</t>
+  </si>
+  <si>
+    <t>Shadow Step</t>
+  </si>
+  <si>
+    <t>Death Blossom</t>
+  </si>
+  <si>
     <t>Reinhardt</t>
   </si>
   <si>
@@ -516,43 +621,268 @@
     <t>Roadhog</t>
   </si>
   <si>
+    <t>Scrap Gun</t>
+  </si>
+  <si>
+    <t>Take a Breather</t>
+  </si>
+  <si>
+    <t>Chain Hook</t>
+  </si>
+  <si>
+    <t>Pig Pen</t>
+  </si>
+  <si>
+    <t>Whole Hog</t>
+  </si>
+  <si>
     <t>Sigma</t>
   </si>
   <si>
+    <t>Hyperspheres</t>
+  </si>
+  <si>
+    <t>Experimental Barrier</t>
+  </si>
+  <si>
+    <t>Kinetic Grasp</t>
+  </si>
+  <si>
+    <t>Accretion</t>
+  </si>
+  <si>
+    <t>Gravitic Flux</t>
+  </si>
+  <si>
     <t>Sojourn</t>
   </si>
   <si>
+    <t>Railgun</t>
+  </si>
+  <si>
+    <t>Railgun Alt Fire</t>
+  </si>
+  <si>
+    <t>Power Slide</t>
+  </si>
+  <si>
+    <t>Disruptor Shot</t>
+  </si>
+  <si>
+    <t>Overclock</t>
+  </si>
+  <si>
     <t>Soldier: 76</t>
   </si>
   <si>
+    <t>Heavy Pulse Rifle</t>
+  </si>
+  <si>
+    <t>Helix Rockets</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Biotic Field</t>
+  </si>
+  <si>
+    <t>Tactical Visor</t>
+  </si>
+  <si>
     <t>Sombra</t>
   </si>
   <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Machine Pistol</t>
+  </si>
+  <si>
+    <t>Hack</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Translocator</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
     <t>Symmetra</t>
   </si>
   <si>
+    <t>Photon Projector</t>
+  </si>
+  <si>
+    <t>Photon Projector Alt Fire</t>
+  </si>
+  <si>
+    <t>Sentry Turret</t>
+  </si>
+  <si>
+    <t>Teleporter</t>
+  </si>
+  <si>
+    <t>Photon Barrier</t>
+  </si>
+  <si>
     <t>Torbjorn</t>
   </si>
   <si>
+    <t>Rivet Gun</t>
+  </si>
+  <si>
+    <t>Rivet Gun Alt Fire</t>
+  </si>
+  <si>
+    <t>Forge Hammer</t>
+  </si>
+  <si>
+    <t>Deploy Turret</t>
+  </si>
+  <si>
+    <t>Overload</t>
+  </si>
+  <si>
+    <t>Molten Core</t>
+  </si>
+  <si>
     <t>Tracer</t>
   </si>
   <si>
+    <t>Pulse Pistols</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Pulse Bomb</t>
+  </si>
+  <si>
     <t>Venture</t>
   </si>
   <si>
+    <t>Clobber</t>
+  </si>
+  <si>
+    <t>Explorer's Resolve</t>
+  </si>
+  <si>
+    <t>Smart Excavator</t>
+  </si>
+  <si>
+    <t>Drill Dash</t>
+  </si>
+  <si>
+    <t>Burrow</t>
+  </si>
+  <si>
+    <t>Tectonic Shock</t>
+  </si>
+  <si>
     <t>Widowmaker</t>
   </si>
   <si>
+    <t>Widow's Kiss</t>
+  </si>
+  <si>
+    <t>Widow's Kiss (ADS)</t>
+  </si>
+  <si>
+    <t>Grappling Hook</t>
+  </si>
+  <si>
+    <t>Venom Mine</t>
+  </si>
+  <si>
+    <t>Infra-Sight</t>
+  </si>
+  <si>
     <t>Winston</t>
   </si>
   <si>
+    <t>Tesla Cannon</t>
+  </si>
+  <si>
+    <t>Tesla Cannon Alt Fire</t>
+  </si>
+  <si>
+    <t>Barrier Projector</t>
+  </si>
+  <si>
+    <t>Jump Pack</t>
+  </si>
+  <si>
+    <t>Primal Rage</t>
+  </si>
+  <si>
     <t>Wrecking Ball</t>
   </si>
   <si>
+    <t xml:space="preserve">Quad Cannons </t>
+  </si>
+  <si>
+    <t>Grappling Claw</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Adaptive Shield</t>
+  </si>
+  <si>
+    <t>Piledriver</t>
+  </si>
+  <si>
+    <t>Minefield</t>
+  </si>
+  <si>
     <t>Zarya</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Patricle Cannon</t>
+  </si>
+  <si>
+    <t>Particle Cannon Alt Fire</t>
+  </si>
+  <si>
+    <t>Particle Barrier</t>
+  </si>
+  <si>
+    <t>Projected Barrier</t>
+  </si>
+  <si>
+    <t>Graviton Surge</t>
+  </si>
+  <si>
     <t>Zenyatta</t>
+  </si>
+  <si>
+    <t>Snap Kick</t>
+  </si>
+  <si>
+    <t>Orb of Destruction</t>
+  </si>
+  <si>
+    <t>Orb of Destruction Alt Fire</t>
+  </si>
+  <si>
+    <t>Orb of Harmony</t>
+  </si>
+  <si>
+    <t>Orb of Discord</t>
+  </si>
+  <si>
+    <t>Transcendence</t>
   </si>
   <si>
     <t>Type</t>
@@ -1930,6 +2260,1119 @@
 Max. range:1.5 meters
 Area of effect:3 meter radius
 Knockback speed:15.1 m/s</t>
+  </si>
+  <si>
+    <t>Healing:40% of healing dealt</t>
+  </si>
+  <si>
+    <t>Duration:Until cancelled
+Movement speed:2 m/s (down)</t>
+  </si>
+  <si>
+    <t>Targeted (lock-on)</t>
+  </si>
+  <si>
+    <t>Weapon 1 (Primary Fire), Weapon 1 (Secondary Fire)</t>
+  </si>
+  <si>
+    <t>Healing:60 per second
+Dmg. amplification:+30% dealt
+Max. range:15 meters</t>
+  </si>
+  <si>
+    <t>Weapon 2 (Primary Fire)</t>
+  </si>
+  <si>
+    <t>Damage:20
+Headshot:✓ (x2)
+Rate of fire:5 shots/s
+Ammo:25
+Reload time:1.4 seconds
+Spread angle:None
+Projectile speed:50 m/s
+Projectile radius:0.275 meters</t>
+  </si>
+  <si>
+    <t>Targeted (Allies), Movement</t>
+  </si>
+  <si>
+    <t>Max. range:30 meters
+Movement speed:17 m/s (regular &amp; Jump extension)
+20.4 m/s (Crouch extension)</t>
+  </si>
+  <si>
+    <t>Targeted (Fallen ally)</t>
+  </si>
+  <si>
+    <t>Healing:Revives ally at full health
+Cast time:1.75 seconds
+Max. range:5 meters
+M. speed penalty:-75%</t>
+  </si>
+  <si>
+    <t>Damage:Chain-damage boost (30% per target)
+Headshot:✕
+Healing:65 per second per target
+Ammo:∞ (Blaster)
+Cast time:0.5 seconds animation
+Duration:15 seconds
+Max. range:10 meters (chain healing)
++100% range (Guardian Angel, Caduceus Staff)
+Movement speed:25 m/s (Guardian Angel)
+26.5 m/s (GA crouch extension)
+M. speed buff:+63.6% (flight)
+Projectile speed:100 m/s (Blaster)</t>
+  </si>
+  <si>
+    <t>Healing:70 per second, then lingers to heal 51 over 3 seconds
+Ammo per shot:20 energy per second
+Ammo:156 biotic energy
+Cast time:0.08 seconds for heal
+Duration:3 seconds (remainder)
+Max. range:15 meters
+Projectile radius:None</t>
+  </si>
+  <si>
+    <t>Beam (Soft lock-on)</t>
+  </si>
+  <si>
+    <t>Damage:65 per second
+Headshot:✕
+Healing:24 per second (self)
+Ammo:∞
+Max. range:20 meters</t>
+  </si>
+  <si>
+    <t>Damage:50 per second, up to 200
+Headshot:✕
+Healing:65 per second, up to 300
+Cast time:0 + 0.4 seconds
+Duration:7 seconds, or until depleted
+Max. range:4 meters (damage orb)
+5 meters (healing orb)
+Projectile speed:20 m/s (default)
+5.5 m/s (while tethered)</t>
+  </si>
+  <si>
+    <t>Duration:0.752 seconds + 0.048 s. recovery
+Max. range:15 meters (max)
+M. speed buff:+250%</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>Damage:85 per second
+Headshot:✕
+Healing:140 per second
+55 per second (self)
+Cast time:0.5 seconds
+Duration:8 seconds
+Max. range:30 meters
+M. speed buff:+40%
+Projectile radius:1.375 meters</t>
+  </si>
+  <si>
+    <t>Damage:13
+Headshot:✓ (x2)
+Rate of fire:10 rounds/s
+Ammo:∞
+Reload time:3 seconds (cooldown after overheat)
+2 seconds (recharge from full heat)
+Projectile speed:100 m/s
+Projectile radius:0.225 meters</t>
+  </si>
+  <si>
+    <t>Damage:80 (direct impact), 40 (wall collision)
+Headshot:✕
+Cast time:0.3 + 0.4 seconds seconds
+Duration:0.2 seconds (impact stun)
+0.3 seconds (wall stun)
+Projectile speed:70 m/s
+Projectile radius:0.5 meters</t>
+  </si>
+  <si>
+    <t>Overhealth:100
+Dmg. reduction:-45% taken
+Cast time:None
+Duration:4 seconds
+M. speed penalty:-10%</t>
+  </si>
+  <si>
+    <t>Damage:20 (first hit)
+5 (subsequent hits)
+Headshot:✕
+Cast time:0 + 0.1 seconds
+Duration:0.5 seconds (min)
+1.75 seconds (max)
+2 seconds (movement speed)
+Max. range:3.5 meters
+M. speed buff:+50% (while active)
+20% after spin</t>
+  </si>
+  <si>
+    <t>Damage:19.5/s (periodic damage), 72 - 500 (release)
+Headshot:✕
+Overhealth:100 (Fortify)
+Dmg. reduction:-45% taken (Fortify)
+Cast time:None (initial cast)
+0.2 seconds (release)
+0.3 seconds (recovery)
+Duration:0.75 - 4 seconds charge time
+Area of effect:9 meters radius
+Movement slow:-30%
+Knockback speed:20 m/s (initial pull)
+2 m/s (knockback, min)
+11.5 m/s (knockback, max)</t>
+  </si>
+  <si>
+    <t>Duration:Up to 2 seconds
+Movement speed:4.66 m/s (vertical)
+M. speed buff:+40% (horizontal)</t>
+  </si>
+  <si>
+    <t>Damage:40 (direct hit)
+80 – 24.6 (splash, enemy)
+20 – 6.15 (splash, self)
+Headshot:✕
+Rate of fire:1.25 shots/second
+Ammo:6
+Reload time:1.5 seconds animation
+Area of effect:2.5 meter radius (explosion)
+Spread angle:None
+Knockback speed:7 m/s (max, enemy)
+14.1 m/s (max, self)
+Projectile speed:40 m/s
+Projectile radius:0.35 meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t>Cast time:None
+Duration:0.85 seconds
+Movement speed:19 m/s</t>
+  </si>
+  <si>
+    <t>Cast time:None
+Duration:0.85 seconds
+Max. range:8.4 meters (vertical)
+Movement speed:21.1 m/s</t>
+  </si>
+  <si>
+    <t>Damage:30 (direct hit only)
+Headshot:✕
+Cast time:0.16 + 0.50 seconds
+Area of effect:8 meter radius
+Knockback speed:31 m/s (direct)
+20.6 m/s (splash)
+Projectile speed:60 m/s
+Projectile radius:0.225 meters</t>
+  </si>
+  <si>
+    <t>Damage:10 (direct hit)
+30 – 9 (splash, enemy)
+15 – 4.5 (splash, self)
+Headshot:✕
+Rate of fire:30 rockets per second
+Cast time:None
+Duration:2.5 seconds
+Area of effect:2 meter explosion radius
+Projectile speed:45 m/s
+Projectile radius:0.075 meters</t>
+  </si>
+  <si>
+    <t>Porjectile</t>
+  </si>
+  <si>
+    <t>Weapon (Primary Fire), (Omnic Form)</t>
+  </si>
+  <si>
+    <t>Damage:5
+Headshot:✓ (x2)
+Rate of fire:25 shots/s
+Ammo:100
+Reload time:1 second
+Projectile speed:80 m/s
+Projectile radius:0.15 meters</t>
+  </si>
+  <si>
+    <t>Weapon (Secondary Fire), (Omnic Form)</t>
+  </si>
+  <si>
+    <t>Barrier health:1000
+Cast time:0.03 + 0.5 seconds
+Duration:4 seconds
+Max. range:35 meters
+Cooldown:13 seconds</t>
+  </si>
+  <si>
+    <t>Armor:300
+Cast time:0 + 0.5 seconds
+Duration:8 seconds
+M. speed buff:+20%</t>
+  </si>
+  <si>
+    <t>Melee, Projectile</t>
+  </si>
+  <si>
+    <t>Weapon (Primary Fire), (Nemesis Form)</t>
+  </si>
+  <si>
+    <t>Damage:65
+Headshot:✕
+Rate of fire:1.67 shots/s
+Ammo:∞
+Max. range:10.5 meters
+Projectile speed:105 m/s
+Projectile radius:0.575 meters</t>
+  </si>
+  <si>
+    <t>Weapon (Secondary Fire), (Nemesis Form)</t>
+  </si>
+  <si>
+    <t>Dmg. reduction:-75% taken
+Cast time:0 + 0.3 seconds
+Duration:0.2 seconds (min)
+M. speed penalty:-50%</t>
+  </si>
+  <si>
+    <t>Active, (Omnic Form), (Nemesis Form)</t>
+  </si>
+  <si>
+    <t>Damage:23.3 per second
+70 total
+Headshot:✕
+Cast time:0.5 + 0.4 seconds
+Duration:3 seconds
+Area of effect:4 meter radius
+~8 meter height
+Movement slow:-40%
+Projectile speed:30 m/s
+Projectile radius:None
+Cooldown:11 seconds</t>
+  </si>
+  <si>
+    <t>Damage:30 per second
+Headshot:✕
+Cast time:0 + 0.5 seconds (Omnic form)
+None (Nemesis form)
+Duration:3 - 20 seconds
+Area of effect:13 meter radius</t>
+  </si>
+  <si>
+    <t>Healing:35% of damage dealt</t>
+  </si>
+  <si>
+    <t>Damage:5.4 – 1.62 per pellet
+108 – 36 per shot
+Falloff range:10 – 20 meters
+Headshot:✓ (x2)
+Rate of fire:0.496 seconds recovery
+Bullets per shot:20
+Ammo per shot:1
+Ammo:8
+Reload time:1.5 seconds animation
+Spread angle:6
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Cast time:0.4 seconds recovery
+Duration:0.4 seconds (min)
+3 seconds (max)
+Max. range:24.75 meters
+M. speed buff:+50%</t>
+  </si>
+  <si>
+    <t>Cast time:1.15 + 0.13 seconds
+Duration:0.53 seconds (teleport)
+0.98 seconds (invulnerability)
+Max. range:35 meters</t>
+  </si>
+  <si>
+    <t>Damage:185 per second
+Headshot:✕
+Duration:3 seconds
+Area of effect:8 meter radius
+M. speed penalty:-50%</t>
+  </si>
+  <si>
+    <t>Damage:6.25 – 1.88 (per pellet)
+15 – 4.5 (per shrapnel)
+160 – 48 (per shot)
+Falloff range:30 – 50 meters
+Headshot:✓ (x1.5)
+Rate of fire:1.25 shots/s
+Bullets per shot:16 (pellets)
+4 (shrapnels)
+Ammo per shot:1
+Ammo:6
+Reload time:1.75 seconds animation
+Spread angle:20.1 degrees
+Projectile speed:80 m/s
+Projectile radius:0.05 meters (pellets)
+0.15 meters (shrapnels)</t>
+  </si>
+  <si>
+    <t>Healing:160 per second
+Dmg. reduction:-40% taken
+Cast time:0.21 + 0.54 seconds
+Duration:0.55 seconds (min)
+2.5 seconds (max)</t>
+  </si>
+  <si>
+    <t>Damage:5
+Headshot:✕
+Cast time:0.1 + 0.2 seconds
+Duration:0.5 seconds (min)
+Max. range:20 meters
+M. speed penalty:-50%
+Knockback speed:40 m/s
+Projectile speed:62 m/s
+Projectile radius:0.5 meter radius (vs enemy)
+None (vs wall or barrier)</t>
+  </si>
+  <si>
+    <t>Damage:60 (initial)
+45/s (periodic)
+195 (total)
+Headshot:✕
+Health:100
+Cast time:0.14 + 0.4 seconds
+Duration:0.8 seconds (arming delay)
+3 seconds (slow)
+Area of effect:2.5 meter radius (trigger)
+4 meter radius (slow area)
+Movement slow:-40%
+Projectile radius:None</t>
+  </si>
+  <si>
+    <t>Damage:6 – 1.8
+Falloff range:30 – 40 meters
+Headshot:✓ (x2)
+Rate of fire:8 shots/s
+Bullets per shot:16 per shot
+Cast time:0.5 + 1 seconds
+Duration:7.5 seconds
+Spread angle:~40 degrees (horizontal)
+~3 degrees (vertical)
+M. speed penalty:-25%
+Knockback speed:16 m/s (knockback)
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Damage:15 (direct hit)
+40 – 12 (splash, enemy)
+Headshot:✕
+Rate of fire:0.67 shots/s
+Bullets per shot:2
+Ammo:∞
+Max. range:22 meters
+Area of effect:3 meter implosion radius
+Knockback speed:1.1 m/s (enemy)
+0.7 m/s (self)
+Projectile speed:48 m/s
+Projectile radius:0.35 meters</t>
+  </si>
+  <si>
+    <t>Barrier health:700
+Cast time:0.03 + 0 seconds
+Duration:Until recalled or destroyed
+Max. range:∞
+Area of effect:4.5 meters height
+5 meters width at the poles
+6.5 meters width at the middle
+Projectile speed:20 m/s</t>
+  </si>
+  <si>
+    <t>Area of effect, Overhealth</t>
+  </si>
+  <si>
+    <t>Overhealth:60% of damage absorbed (400 max)
+Cast time:0.05 + 0.5 seconds
+Duration:2 seconds
+Max. range:3 meters</t>
+  </si>
+  <si>
+    <t>Damage:80 (direct)
+40 – 12 (splash, enemy)
+20 – 6 (splash, self)
+Headshot:✕
+Cast time:0.64 + 0 seconds
+Duration:1.2 seconds (knockdown)
+Area of effect:2.5 meter explosion radius
+M. speed penalty:-75%
+Knockback speed:10.9 m/s (enemy, direct)
+4.3 m/s (enemy, splash)
+3.6 m/s (self, splash)
+Projectile speed:37 m/s
+Projectile radius:0.9 meters</t>
+  </si>
+  <si>
+    <t>Damage:50 (lift)
+50% max HP (slam)
+Headshot:✕
+Cast time:0 + 0.6 seconds (activation)
+1.0 + 0 seconds (lift)
+Duration:5 seconds (targeting)
+1 second (activation delay)
+2.3 seconds (suspension)
+0.6 seconds (high gravity after slam)
+Max. range:35 meters
+Area of effect:8 meters radius (horizontal)
+~8-10 meters (vertical)
+Movement speed:7.15 m/s</t>
+  </si>
+  <si>
+    <t>Damage:9
+Headshot:✓ (x2)
+Rate of fire:16 shots/s
+Ammo per shot:1
+Ammo:45
+Reload time:1.2 seconds
+Spread angle:1.6 degrees
+Projectile speed:160 m/s
+Projectile radius:0.175 meters</t>
+  </si>
+  <si>
+    <t>Damage:100 – 1
+Falloff range:40 – 60 meters
+Headshot:✓ (x1.5)
+Cast time:~0.65 seconds recovery [verify]
+Projectile radius:0.08 - 0.15 meters</t>
+  </si>
+  <si>
+    <t>Max. range:~16 meters
+Movement speed:17 m/s (jump, vertical)
+M. speed buff:+160% (slide)
++273% (jump, horizontal)</t>
+  </si>
+  <si>
+    <t>Damage:60 per second
+210 total
+Headshot:✕
+Duration:4 seconds
+Max. range:30 meters
+Area of effect:4 meters
+Projectile speed:30 m/s
+Projectile radius:0.2 meters</t>
+  </si>
+  <si>
+    <t>Cast time:0 + 0.74 seconds
+Duration:8 seconds</t>
+  </si>
+  <si>
+    <t>Damage:19 - 5.7
+Falloff range:30 - 50 meters
+Headshot:✓ (x2)
+Rate of fire:9 rounds per second
+Ammo:30
+Reload time:1.5 seconds animation
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Damage:40 (direct hit bonus)
+80 – 40 (splash, enemy)
+40 – 20 (splash, self)
+Headshot:✕
+Duration:0.5 seconds recovery for primary
+Area of effect:3 meter radius
+Knockback speed:7.2 m/s (max)
+Projectile speed:50 m/s
+Projectile radius:0.35 meters</t>
+  </si>
+  <si>
+    <t>Duration:∞
+M. speed buff:+50%</t>
+  </si>
+  <si>
+    <t>Healing, Area of effect</t>
+  </si>
+  <si>
+    <t>Healing:40 per second
+Cast time:0.54 seconds (cannot be canceled by enemy)
+Duration:5 seconds
+Area of effect:4.5 meter radius</t>
+  </si>
+  <si>
+    <t>Hitscan (Target lock-on)</t>
+  </si>
+  <si>
+    <t>Headshot:✓ (x2)
+Reload time:0.65 seconds
+Cast time:1.2 seconds
+Duration:6 seconds</t>
+  </si>
+  <si>
+    <t>Cast time:0.25 (fade out)
+0.375 seconds (fade in)
+Duration:∞
+Area of effect:4 meter radius (detection)
+M. speed buff:+60%
+Cooldown:3.5 seconds</t>
+  </si>
+  <si>
+    <t>Damage:8 - 2.4
+Falloff range:15 - 35 meters
+Headshot:✓ (x2)
+Rate of fire:20 shots/s
+Ammo:60
+Reload time:1.2 seconds animation
+Spread angle:0 - 2.16 degrees
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targted </t>
+  </si>
+  <si>
+    <t>Cast time:0.65 + 0.4 seconds
+Duration:8 seconds (reveal, heroes)
+1.5 seconds (ability disable, heroes)
+45 seconds (health packs)
+10 seconds (disable, objects)
+Max. range:15 meters</t>
+  </si>
+  <si>
+    <t>Damage:35 (impact, normal)
+70 (impact, hacked)
+75 (DoT)
+Headshot:✕
+Cast time:0.06 + 0.38 seconds
+Duration:4 seconds (normal)
+2 seconds (hacked)
+Projectile speed:51 m/s
+Projectile radius:0.5 meters</t>
+  </si>
+  <si>
+    <t>Arcing Projectile, Movement</t>
+  </si>
+  <si>
+    <t>Cast time:0 + 0.4 seconds
+Duration:0.25 seconds (teleport delay)
+0.4 seconds (invulnerability)
+Projectile speed:72 m/s</t>
+  </si>
+  <si>
+    <t>Damage:25% of current health
+Headshot:✕
+Cast time:0.3 + 0.34 seconds
+Duration:8 seconds (reveal, heroes)
+3 seconds (ability disable, heroes)
+45 seconds (health packs)
+10 seconds (disable, objects)
+Area of effect:15 meters</t>
+  </si>
+  <si>
+    <t>Damage:60/120/180 per second
+Headshot:✕
+Ammo per shot:10 per second
+Ammo:100
+Reload time:1.5 seconds animation
+Max. range:12 meters
+Projectile radius:0.25 meters</t>
+  </si>
+  <si>
+    <t>Damage:5 - 50 (direct hit)
+5 - 50 (splash, enemy)
+Headshot:✕
+Rate of fire:0.1 seconds recovery for reuse
+0.25 s. recovery for use primary
+Ammo per shot:10 (max charge)
+Ammo:100
+Reload time:1.5 seconds animation
+Cast time:0.16 seconds (to min charge)
+1 second (to full charge)
+Area of effect:Up to 2 meters radius (explosion)
+Projectile speed:50 meters per second
+Projectile radius:0.115 - 0.575 meters</t>
+  </si>
+  <si>
+    <t>Projectile (Before deployment), Beam (Turret beam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage:30 per second
+Headshot:✕
+Health:40
+Cast time:0.22 seconds for throw + 0.28 s. recovery for shoot
+~1 second (deployment)
+Duration:Until destroyed or replaced
+Max. range:10 meters (turret beam)
+Movement slow:−15% per turret
+Projectile speed:20 meters per second
+</t>
+  </si>
+  <si>
+    <t>Health:100
+Shields:200
+Cast time:1 + 0.72 seconds (deployment)
+Duration:10 seconds
+Max. range:30 meters
+Area of effect:1.5 meter (interact range)</t>
+  </si>
+  <si>
+    <t>Barrier health:4000
+Duration:12 seconds
+Max. range:25 meters
+Area of effect:484 m × 50 m</t>
+  </si>
+  <si>
+    <t>Weapon 1 (Primary Fire)</t>
+  </si>
+  <si>
+    <t>Damage:70
+Headshot:✓ (x2)
+Rate of fire:1.96 shots/s
+Ammo:18
+Reload time:2 seconds
+Projectile speed:70 m/s
+Projectile radius:0.18 meters</t>
+  </si>
+  <si>
+    <t>Shotgun (Porjectile)</t>
+  </si>
+  <si>
+    <t>Weapon 1 (Secondary Fire)</t>
+  </si>
+  <si>
+    <t>Damage:12.5 - 3.75 per pellet
+125 - 37.5 per shot
+Falloff range:10 – 20 meters
+Headshot:✓ (x2)
+Rate of fire:1.43 shots/s
+Bullets per shot:10
+Ammo per shot:2
+Ammo:18
+Reload time:2 seconds
+Spread angle:4.5 degrees
+Projectile speed:120 m/s
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Damage:55
+Headshot:✕
+Healing:50 (to Torbjörn's turret)
+Rate of fire:1 swing per ~0.7 seconds
+Duration:0.192 seconds (hitbox active)
+Max. range:2.5 meters</t>
+  </si>
+  <si>
+    <t>Arcing Projectile (Deploy), Hitscan (Turret fire)</t>
+  </si>
+  <si>
+    <t>Damage:13
+Headshot:✕
+Rate of fire:4 shots/s
+Health:225
+Cast time:0.51 second recovery
+3 seconds (deploy time)
+Duration:Until destroyed or replaced
+Max. range:15 meters (deploying turret)
+40 meters (attack range)
+Projectile speed:17 meters per second
+Projectile radius:0.35 meters (deploying turret)</t>
+  </si>
+  <si>
+    <t>Rate of fire:Rivet Gun: 0.4 second recovery (primary fire)
+Rivet Gun: 0.5 second recovery (alternate fire)
+Forge Hammer: 0.6 second recovery
+Reload time:1.4 seconds (Rivet Gun)[possibly bugged]
+Overhealth:100
+Cast time:0.68 seconds animation
+Duration:5 seconds
+M. speed buff:+30%</t>
+  </si>
+  <si>
+    <t>Damage:25 (impact)
+160 per second, +90 against armor (pools)
+Headshot:✕
+Rate of fire:1 ammo per 0.144 (if holding primary)
+1 ammo per 0.016 (manual rapid fire)
+Ammo:10
+Cast time:0.592 seconds
+Duration:Up to 5.5 seconds (claw)
+10 seconds (pools)
+Area of effect:2.5 meter interact radius
+Projectile speed:40 m/s
+Projectile radius:0.205 meters</t>
+  </si>
+  <si>
+    <t>Damage:5.5 - 1.65 (per bullet)
+11 - 3.3 (per shot)
+Falloff range:10 - 20 meters
+Headshot:✓ (x2)
+Rate of fire:20 shots/s
+Bullets per shot:2
+Ammo per shot:2
+Ammo:40
+Reload time:1 second
+Spread angle:4.14 degrees (max)
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Duration:0.1 seconds recovery for reuse
+Max. range:7.5 meters</t>
+  </si>
+  <si>
+    <t>Healing:Health returned to the highest value in the past 3 seconds
+Duration:0.91 seconds rewinding
+Rewinds 3 seconds back</t>
+  </si>
+  <si>
+    <t>Damage:5 (stick)
+350 - 70 (explosion, enemy)
+175 - 35 (explosion, self)
+Headshot:✕
+Cast time:0.144 seconds for throw + 0.192 seconds recovery
+Duration:1 second after stick
+Area of effect:4 meter explosion radius
+Projectile speed:15 meters per second
+Projectile radius:0.25 meters</t>
+  </si>
+  <si>
+    <t>Damage:30 (impact)
+40 (over time)
+Headshot:✕
+Cast time:0 + 0.4 seconds
+Duration:0.7 seconds
+Max. range:3 meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shields:30 (normal abilities)
+75 (Tectonic Shock)
+Duration:3 seconds
+</t>
+  </si>
+  <si>
+    <t>Damage:35 (direct hit bonus)
+40 - 12 (explosion)
+Falloff range:1 - 2.75 meters (explosion)
+Headshot:✕
+Rate of fire:1.43 shots/s
+Ammo:8
+Reload time:1.5 seconds
+Max. range:16 meters
+Area of effect:2.75 meter explosion radius
+Knockback speed:1.5 m/s (direct hit)
+1.1 m/s (min)
+Projectile speed:50 m/s
+Projectile radius:0.35 meters</t>
+  </si>
+  <si>
+    <t>Damage:30 (first hit)
+60 over 0.4 seconds (subsequent hits)
+5 (during Burrow)
+Headshot:✕
+Cast time:0 + 0.3 seconds (unburrowed)
+None (burrowed)
+Duration:0.4 seconds (unburrowed)
+0.9 seconds (burrowed)
+Max. range:10 meters
+Movement speed:20 m/s (self, max)
+12 m/s (self, upwards max)
+16 m/s (self, during Burrow)
+Knockback speed:14.5 m/s (regular)
+13.45 m/s (during Burrow)</t>
+  </si>
+  <si>
+    <t>Movement, Area of effect</t>
+  </si>
+  <si>
+    <t>Damage:110 - 75 (max charge)
+55 - 37.5 (min charge)
+Falloff range:2.5 - 7.5 meters (max charge)
+1.4 - 4 meters (min charge)
+Headshot:✕
+Cast time:0.7 + 0 seconds (burrowing)
+0 + 0.6 seconds (emerging)
+Duration:4 seconds (burrowed)
+0.2 seconds (emerging, min charge)
+0.65 seconds (emerging, max charge)
+1.3 seconds (emerging, max delay))
+Movement speed:14 m/s (emerging, max charge)
+7 m/s (emerging, min charge)
+M. speed buff:+40% (burrowed)
+M. speed penalty:-25% (casting)
+Knockback speed:7.1 m/s (falloff start)
+5.6 m/s (falloff end)</t>
+  </si>
+  <si>
+    <t>Damage:130
+Headshot:✕
+Rate of fire:1.11 shots/s
+Ammo:4
+Cast time:0.8 + 0.3 seconds
+Duration:7 seconds
+Area of effect:24.65 meters radius
+2.5m height
+Spread angle:12 degrees
+Knockback speed:5 m/s (vertical only)</t>
+  </si>
+  <si>
+    <t>Damage:13 - 3.9
+Falloff range:20 - 40 meters
+Headshot:✓ (x2)
+Rate of fire:10 shots/s
+Ammo:35
+Reload time:1.5 seconds animation
+Spread angle:0 - 3 degrees
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Damage:12 - 6 (at 0% power)
+120 - 60 (at 100% power)
+Falloff range:50 - 70 meters
+Headshot:✓ (x2.5)
+Rate of fire:Up to 1 seconds to charge
+0.5 second recovery before it starts charging again
+recovery stops while zoom in
+Ammo per shot:5 per shot
+Ammo:35
+Reload time:1.5 seconds animation
+Cast time:0.9 seconds charging
+0.32 seconds zoom in/out
+Spread angle:None
+M. speed penalty:-65%
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Max. range:20 meters
+Movement speed:20 m/s</t>
+  </si>
+  <si>
+    <t>Damage:15 per second
+75 total
+Headshot:✕
+Health:1
+Cast time:0.19 s. for throw + 0.78 s. recovery
+Duration:Until replaced or destroyed (mine)
+5 seconds (poison)
+Area of effect:3 meter interact radius
+Projectile speed:20 m/s
+Projectile radius:0.2 meters</t>
+  </si>
+  <si>
+    <t>Cast time:0.64 seconds
+Duration:15 seconds
+Area of effect:Map-wide</t>
+  </si>
+  <si>
+    <t>Beam (Multi-Target)</t>
+  </si>
+  <si>
+    <t>Damage:70 per second
+Headshot:✕
+Ammo per shot:20 per second
+Ammo:100
+Reload time:1.7 seconds animation
+Max. range:8 meters
+Spread angle:45 degrees</t>
+  </si>
+  <si>
+    <t>Histscan</t>
+  </si>
+  <si>
+    <t>Damage:15 (min charge)
+50 (max charge)
+Headshot:✕
+Ammo per shot:4 - 12
+Cast time:0.3 seconds (to min charge)
+0.85 second (to full charge)
+0.75 recovery
+Max. range:40 meters
+Projectile radius:0.33 meters</t>
+  </si>
+  <si>
+    <t>Barrier health:650
+Cast time:None
+Duration:8 seconds
+Area of effect:5 meter radius</t>
+  </si>
+  <si>
+    <t>Damage:50 – 1
+Headshot:✕
+Cast time:None
+Area of effect:5 meters radius (max)
+1.3 meter radius (falloff start)
+Movement speed:30 m/s
+Knockback speed:10.1 m/s (landing)
+7.2 (mid-leap)</t>
+  </si>
+  <si>
+    <t>Damage:50 (melee)
+Headshot:✕
+Rate of fire:1 swing per 0.656 seconds
+Health:700 max health, fully restore HP
+Cast time:0 + 0.7 seconds
+Duration:10 seconds (transformation)
+Max. range:4 meters (melee)
+M. speed buff:+30%
+Knockback speed:25.7 m/s (melee)</t>
+  </si>
+  <si>
+    <t>Damage:5 – 1.5 per shot
+Falloff range:15 – 25 meters
+Headshot:✓ (x2)
+Rate of fire:25 shots per second
+Ammo:80
+Reload time:1.6 seconds animation
+Spread angle:~2 degrees
+Projectile radius:0.05 meters</t>
+  </si>
+  <si>
+    <t>Damage:60 (high speed)
+Headshot:✕
+Duration:6 seconds (max. grapple time)
+1.5 seconds (fireball)
+Max. range:23 meters (max)
+6 meters (retracted)
+Movement speed:9 m/s (retracting)
+M. speed buff:+100% (max, grappling)
++80% (max, released)
+Knockback speed:22 m/s</t>
+  </si>
+  <si>
+    <t>Cast time:0.4 seconds (transform into default form)
+Movement speed:10 m/s</t>
+  </si>
+  <si>
+    <t>Overhealth:100 base + 100 per enemy (self)
+-50 per ally (max transfer, self)
++75 (max transfer, allies)
+Duration:7 seconds (self)
+4 seconds (allies)
+Area of effect:13 meter radius</t>
+  </si>
+  <si>
+    <t>Damage:100 - 20
+Headshot:✕
+Cast time:1 second
+Duration:0.75 seconds (enemy air lock)
+0.3 seconds (recovery for form change)
+0.2 seconds (recovery for ult)
+Area of effect:8 meter radius
+Movement speed:5 m/s (charging)
+98 m/s (downwards)</t>
+  </si>
+  <si>
+    <t>Arcing Projectiles</t>
+  </si>
+  <si>
+    <t>Damage:165
+Headshot:✕
+Health:60
+Cast time:0.1 + 0.3 seconds
+Duration:20 seconds (on ground)
+1.25 seconds (arming time)
+Area of effect:1.5 meter interact radius
+Knockback speed:10 m/s
+Projectile speed:12 m/s</t>
+  </si>
+  <si>
+    <t>Damage blocked increases Particle Cannon damage.</t>
+  </si>
+  <si>
+    <t>Damage:95 per second (at 0%)
+190 per second (100% Energy)
+Headshot:✕
+Rate of fire:20 ticks per second
+Ammo:100
+Reload time:1.5 seconds animation
+Max. range:15 meters
+Projectile radius:0.2 meters</t>
+  </si>
+  <si>
+    <t>Damage:55 – 11 (enemy, 0% Energy)
+110 – 22 (enemy, 100% Energy)
+27.5 – 5.5 (self, 0% Energy)
+55 – 11 (self, 100% Energy)
+Headshot:✕
+Rate of fire:1 shot/s
+Ammo per shot:25
+Ammo:100
+Reload time:1.5 seconds
+Cast time:0.01 seconds
+0.4 seconds recovery for primary
+Area of effect:2.5 meter radius
+Knockback speed:5 m/s
+Projectile speed:25 m/s
+Projectile radius:0.35 meters</t>
+  </si>
+  <si>
+    <t>Barrier (Self)</t>
+  </si>
+  <si>
+    <t>Barrier health:225
+Duration:2.25 seconds
+Area of effect:1.5 meter radius</t>
+  </si>
+  <si>
+    <t>Barrier (Targeted allies)</t>
+  </si>
+  <si>
+    <t>Health:225
+Duration:2.25 seconds
+Max. range:30 meters
+Area of effect:1.5 meter radius</t>
+  </si>
+  <si>
+    <t>Arcing Projectile (Initial cast), Area of effect (Ability Start)</t>
+  </si>
+  <si>
+    <t>Damage:5 (impact)
+5 per second (over time)
+Headshot:✕
+Cast time:0 + 0.4 seconds
+Duration:4 seconds
+Area of effect:7 meter radius
+Projectile speed:25 meters per second
+Projectile radius:0.2 meters</t>
+  </si>
+  <si>
+    <t>Damage:60
+Headshot:✕
+Knockback speed:15.8 m/s (max)</t>
+  </si>
+  <si>
+    <t>Damage:50
+Headshot:✓ (x2)
+Rate of fire:1 shot every 0.4 second
+Ammo:25
+Reload time:1.5 seconds animation
+Spread angle:None
+Projectile speed:90 meters per second
+Projectile radius:0.225 meters</t>
+  </si>
+  <si>
+    <t>Damage:50 per orb
+250 per volley
+Headshot:✓ (x2)
+Rate of fire:1 orb per 0.524 seconds (charging)
+1 shot per 0.144 seconds (firing)
+0.6 seconds recovery
+Ammo per shot:Up to 5 per volley
+Ammo:25
+Reload time:1.5 seconds animation
+Spread angle:None
+Projectile speed:90 m/s
+Projectile radius:0.225 meters</t>
+  </si>
+  <si>
+    <t>Healing:30 health per second
+Duration:5 seconds (if out of sight)
+Max. range:40 meters
+Projectile speed:90 m/s</t>
+  </si>
+  <si>
+    <t>Dmg. amplification:+25% taken
+Duration:1.5 seconds (if out of sight)
+Max. range:40 meters
+Projectile speed:90 m/s</t>
+  </si>
+  <si>
+    <t>Healing:300 health per second
+Duration:6 seconds
+Max. range:10.5 meters radius
+M. speed buff:+100%</t>
   </si>
 </sst>
 </file>
@@ -2224,9 +3667,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="15.75"/>
+    <col customWidth="1" min="8" max="8" width="19.88"/>
     <col customWidth="1" min="9" max="9" width="21.75"/>
-    <col customWidth="1" min="10" max="10" width="18.25"/>
+    <col customWidth="1" min="10" max="10" width="20.25"/>
     <col customWidth="1" min="11" max="11" width="17.25"/>
     <col customWidth="1" min="12" max="12" width="17.5"/>
     <col customWidth="1" min="13" max="13" width="17.38"/>
@@ -3046,68 +4489,227 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C22" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E22" s="3">
         <v>0.0</v>
       </c>
+      <c r="F22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C23" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E23" s="3">
         <v>0.0</v>
       </c>
+      <c r="F23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C24" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>350.0</v>
+      </c>
       <c r="E24" s="3">
         <v>0.0</v>
       </c>
+      <c r="F24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C25" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E25" s="3">
         <v>0.0</v>
       </c>
+      <c r="F25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C26" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>75.0</v>
+      </c>
       <c r="E26" s="3">
         <v>0.0</v>
       </c>
+      <c r="F26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C27" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E27" s="3">
         <v>0.0</v>
       </c>
+      <c r="F27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>64</v>
@@ -3125,173 +4727,521 @@
         <v>0.0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C29" s="3">
+        <v>750.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E29" s="3">
         <v>0.0</v>
       </c>
+      <c r="F29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C30" s="3">
+        <v>350.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>275.0</v>
+      </c>
       <c r="E30" s="3">
         <v>0.0</v>
       </c>
+      <c r="F30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C31" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E31" s="3">
         <v>0.0</v>
       </c>
+      <c r="F31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C32" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E32" s="3">
         <v>0.0</v>
       </c>
+      <c r="F32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C33" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E33" s="3">
         <v>0.0</v>
       </c>
+      <c r="F33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C34" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>150.0</v>
+      </c>
       <c r="E34" s="3">
         <v>0.0</v>
       </c>
+      <c r="F34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C35" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>75.0</v>
+      </c>
       <c r="E35" s="3">
         <v>0.0</v>
       </c>
+      <c r="F35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C36" s="3">
+        <v>175.0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E36" s="3">
         <v>0.0</v>
       </c>
+      <c r="F36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C37" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E37" s="3">
         <v>0.0</v>
       </c>
+      <c r="F37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C38" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E38" s="3">
         <v>0.0</v>
       </c>
+      <c r="F38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C39" s="3">
+        <v>375.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>250.0</v>
+      </c>
       <c r="E39" s="3">
         <v>0.0</v>
       </c>
+      <c r="F39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C40" s="3">
+        <v>450.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>150.0</v>
+      </c>
       <c r="E40" s="3">
-        <v>0.0</v>
+        <v>175.0</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C41" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>125.0</v>
+      </c>
       <c r="E41" s="3">
         <v>0.0</v>
       </c>
+      <c r="F41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C42" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>175.0</v>
+      </c>
       <c r="E42" s="3">
         <v>0.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +5264,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.75"/>
     <col customWidth="1" min="2" max="2" width="45.38"/>
-    <col customWidth="1" min="3" max="3" width="26.13"/>
+    <col customWidth="1" min="3" max="3" width="40.63"/>
     <col customWidth="1" min="4" max="4" width="51.0"/>
     <col customWidth="1" min="5" max="5" width="21.5"/>
     <col customWidth="1" min="6" max="6" width="38.38"/>
@@ -3328,28 +5278,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
@@ -3371,16 +5321,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -3388,57 +5338,57 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
@@ -3446,13 +5396,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
@@ -3460,28 +5410,28 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -3489,28 +5439,28 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -3518,28 +5468,28 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
@@ -3547,28 +5497,28 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
@@ -3576,28 +5526,28 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
@@ -3605,28 +5555,28 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
@@ -3634,28 +5584,28 @@
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13">
@@ -3663,28 +5613,28 @@
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14">
@@ -3692,28 +5642,28 @@
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15">
@@ -3721,28 +5671,28 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16">
@@ -3750,158 +5700,158 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
@@ -3909,13 +5859,13 @@
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
@@ -3923,28 +5873,28 @@
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24">
@@ -3952,13 +5902,13 @@
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25">
@@ -3966,28 +5916,28 @@
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26">
@@ -3995,28 +5945,28 @@
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27">
@@ -4024,28 +5974,28 @@
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
@@ -4053,13 +6003,13 @@
         <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29">
@@ -4067,28 +6017,28 @@
         <v>109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
@@ -4096,28 +6046,28 @@
         <v>110</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
@@ -4125,28 +6075,28 @@
         <v>111</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -4154,28 +6104,28 @@
         <v>112</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
@@ -4183,28 +6133,28 @@
         <v>113</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -4212,13 +6162,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35">
@@ -4226,28 +6176,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
@@ -4255,28 +6205,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -4284,28 +6234,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
@@ -4313,28 +6263,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
@@ -4342,28 +6292,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
@@ -4371,28 +6321,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
@@ -4400,28 +6350,28 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
@@ -4429,28 +6379,28 @@
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
@@ -4458,28 +6408,28 @@
         <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44">
@@ -4487,13 +6437,13 @@
         <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -4501,28 +6451,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
@@ -4530,28 +6480,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
@@ -4559,28 +6509,28 @@
         <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>282</v>
+        <v>392</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48">
@@ -4588,28 +6538,28 @@
         <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>283</v>
+        <v>393</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
@@ -4617,13 +6567,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
@@ -4631,28 +6581,28 @@
         <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51">
@@ -4660,28 +6610,28 @@
         <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
@@ -4692,10 +6642,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
@@ -4703,28 +6653,28 @@
         <v>75</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
@@ -4732,28 +6682,28 @@
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
@@ -4761,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56">
@@ -4775,28 +6725,28 @@
         <v>78</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
@@ -4804,28 +6754,28 @@
         <v>79</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
@@ -4833,13 +6783,13 @@
         <v>81</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>295</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59">
@@ -4847,28 +6797,28 @@
         <v>82</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60">
@@ -4876,28 +6826,28 @@
         <v>83</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61">
@@ -4905,13 +6855,13 @@
         <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
@@ -4919,28 +6869,28 @@
         <v>85</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
@@ -4948,28 +6898,28 @@
         <v>86</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>301</v>
+        <v>411</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64">
@@ -4977,13 +6927,13 @@
         <v>88</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65">
@@ -4991,28 +6941,28 @@
         <v>89</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66">
@@ -5020,28 +6970,28 @@
         <v>90</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
@@ -5049,28 +6999,28 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68">
@@ -5081,10 +7031,10 @@
         <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69">
@@ -5092,28 +7042,28 @@
         <v>93</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70">
@@ -5121,13 +7071,13 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71">
@@ -5135,28 +7085,28 @@
         <v>96</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72">
@@ -5164,28 +7114,28 @@
         <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73">
@@ -5193,28 +7143,28 @@
         <v>98</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74">
@@ -5222,13 +7172,13 @@
         <v>99</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75">
@@ -5236,28 +7186,28 @@
         <v>100</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76">
@@ -5265,28 +7215,28 @@
         <v>102</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77">
@@ -5294,28 +7244,28 @@
         <v>103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78">
@@ -5323,28 +7273,28 @@
         <v>104</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79">
@@ -5352,28 +7302,28 @@
         <v>105</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80">
@@ -5381,28 +7331,28 @@
         <v>106</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81">
@@ -5410,28 +7360,28 @@
         <v>115</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82">
@@ -5439,28 +7389,28 @@
         <v>116</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83">
@@ -5468,28 +7418,28 @@
         <v>117</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84">
@@ -5497,28 +7447,28 @@
         <v>118</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85">
@@ -5526,28 +7476,28 @@
         <v>119</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86">
@@ -5555,13 +7505,13 @@
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87">
@@ -5569,28 +7519,28 @@
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88">
@@ -5598,28 +7548,28 @@
         <v>123</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89">
@@ -5627,13 +7577,13 @@
         <v>124</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>332</v>
+        <v>442</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90">
@@ -5641,28 +7591,28 @@
         <v>125</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G90" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91">
@@ -5670,28 +7620,28 @@
         <v>126</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92">
@@ -5699,28 +7649,28 @@
         <v>128</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="I92" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93">
@@ -5728,28 +7678,28 @@
         <v>129</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94">
@@ -5757,28 +7707,28 @@
         <v>130</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95">
@@ -5786,13 +7736,13 @@
         <v>131</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96">
@@ -5800,28 +7750,28 @@
         <v>132</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97">
@@ -5829,28 +7779,28 @@
         <v>133</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98">
@@ -5858,13 +7808,13 @@
         <v>135</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>343</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99">
@@ -5872,28 +7822,28 @@
         <v>136</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100">
@@ -5901,28 +7851,28 @@
         <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101">
@@ -5930,28 +7880,28 @@
         <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>346</v>
+        <v>456</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102">
@@ -5959,28 +7909,28 @@
         <v>139</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103">
@@ -5988,28 +7938,28 @@
         <v>140</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104">
@@ -6020,10 +7970,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105">
@@ -6031,28 +7981,28 @@
         <v>143</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106">
@@ -6060,28 +8010,28 @@
         <v>144</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>351</v>
+        <v>461</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107">
@@ -6089,28 +8039,28 @@
         <v>145</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108">
@@ -6118,28 +8068,28 @@
         <v>146</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109">
@@ -6147,28 +8097,28 @@
         <v>147</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110">
@@ -6176,28 +8126,28 @@
         <v>149</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>355</v>
+        <v>465</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111">
@@ -6205,28 +8155,28 @@
         <v>150</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112">
@@ -6234,13 +8184,13 @@
         <v>151</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>358</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113">
@@ -6248,13 +8198,13 @@
         <v>152</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114">
@@ -6262,28 +8212,28 @@
         <v>153</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>360</v>
+        <v>470</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115">
@@ -6291,13 +8241,13 @@
         <v>65</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>363</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116">
@@ -6305,28 +8255,28 @@
         <v>66</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>364</v>
+        <v>474</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117">
@@ -6334,28 +8284,28 @@
         <v>67</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>367</v>
+        <v>477</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118">
@@ -6363,13 +8313,13 @@
         <v>68</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119">
@@ -6377,28 +8327,28 @@
         <v>69</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
@@ -6406,28 +8356,28 @@
         <v>70</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>372</v>
+        <v>482</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121">
@@ -6435,28 +8385,28 @@
         <v>71</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>374</v>
+        <v>484</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122">
@@ -6464,28 +8414,2768 @@
         <v>72</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>213</v>
+      <c r="B196" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6540,77 +11230,77 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/in/OW.xlsx
+++ b/in/OW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="630">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Overhealth</t>
+  </si>
+  <si>
+    <t>Armour</t>
   </si>
   <si>
     <t>Image URL</t>
@@ -1096,7 +1099,7 @@
     <t>Partially affected by Amplification Matrix</t>
   </si>
   <si>
-    <t>Targted (Allies)</t>
+    <t>Targeted (Allies)</t>
   </si>
   <si>
     <t>Healing:250
@@ -2822,7 +2825,7 @@
 Projectile radius:0.05 meters</t>
   </si>
   <si>
-    <t xml:space="preserve">Targted </t>
+    <t xml:space="preserve">Targeted </t>
   </si>
   <si>
     <t>Cast time:0.65 + 0.4 seconds
@@ -3667,12 +3670,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="19.88"/>
-    <col customWidth="1" min="9" max="9" width="21.75"/>
-    <col customWidth="1" min="10" max="10" width="20.25"/>
-    <col customWidth="1" min="11" max="11" width="17.25"/>
-    <col customWidth="1" min="12" max="12" width="17.5"/>
-    <col customWidth="1" min="13" max="13" width="17.38"/>
+    <col customWidth="1" min="9" max="9" width="19.88"/>
+    <col customWidth="1" min="10" max="10" width="21.75"/>
+    <col customWidth="1" min="11" max="11" width="20.25"/>
+    <col customWidth="1" min="12" max="12" width="17.25"/>
+    <col customWidth="1" min="13" max="13" width="17.5"/>
+    <col customWidth="1" min="14" max="14" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3721,7 +3724,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -3733,13 +3738,14 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>75.0</v>
@@ -3753,8 +3759,8 @@
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
+      <c r="G2" s="3">
+        <v>0.0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
@@ -3771,13 +3777,16 @@
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>250.0</v>
@@ -3791,8 +3800,8 @@
       <c r="F3" s="3">
         <v>0.0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
+      <c r="G3" s="3">
+        <v>0.0</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>25</v>
@@ -3803,13 +3812,16 @@
       <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>250.0</v>
@@ -3823,8 +3835,8 @@
       <c r="F4" s="3">
         <v>0.0</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
+      <c r="G4" s="3">
+        <v>0.0</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>31</v>
@@ -3838,13 +3850,16 @@
       <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>250.0</v>
@@ -3858,8 +3873,8 @@
       <c r="F5" s="3">
         <v>0.0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
+      <c r="G5" s="3">
+        <v>0.0</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>37</v>
@@ -3876,13 +3891,16 @@
       <c r="M5" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>250.0</v>
@@ -3896,8 +3914,8 @@
       <c r="F6" s="3">
         <v>0.0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
+      <c r="G6" s="3">
+        <v>0.0</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
@@ -3914,13 +3932,16 @@
       <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>200.0</v>
@@ -3934,8 +3955,8 @@
       <c r="F7" s="3">
         <v>0.0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
+      <c r="G7" s="3">
+        <v>0.0</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>51</v>
@@ -3955,13 +3976,16 @@
       <c r="N7" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>275.0</v>
@@ -3975,8 +3999,8 @@
       <c r="F8" s="3">
         <v>0.0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
+      <c r="G8" s="3">
+        <v>0.0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>59</v>
@@ -3990,13 +4014,16 @@
       <c r="L8" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>375.0</v>
@@ -4010,8 +4037,8 @@
       <c r="F9" s="3">
         <v>0.0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
+      <c r="G9" s="3">
+        <v>0.0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>66</v>
@@ -4034,13 +4061,16 @@
       <c r="O9" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="P9" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
         <v>525.0</v>
@@ -4054,8 +4084,8 @@
       <c r="F10" s="3">
         <v>0.0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>74</v>
+      <c r="G10" s="3">
+        <v>0.0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>75</v>
@@ -4072,13 +4102,16 @@
       <c r="M10" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>225.0</v>
@@ -4092,8 +4125,8 @@
       <c r="F11" s="3">
         <v>0.0</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>81</v>
+      <c r="G11" s="3">
+        <v>0.0</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>82</v>
@@ -4110,13 +4143,16 @@
       <c r="M11" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="N11" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>250.0</v>
@@ -4130,8 +4166,8 @@
       <c r="F12" s="3">
         <v>0.0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>88</v>
+      <c r="G12" s="3">
+        <v>0.0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>89</v>
@@ -4148,13 +4184,16 @@
       <c r="M12" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="N12" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>225.0</v>
@@ -4168,8 +4207,8 @@
       <c r="F13" s="3">
         <v>0.0</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>95</v>
+      <c r="G13" s="3">
+        <v>0.0</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>96</v>
@@ -4186,13 +4225,16 @@
       <c r="M13" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="N13" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>250.0</v>
@@ -4206,8 +4248,8 @@
       <c r="F14" s="3">
         <v>0.0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>102</v>
+      <c r="G14" s="3">
+        <v>0.0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>103</v>
@@ -4221,13 +4263,16 @@
       <c r="L14" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>525.0</v>
@@ -4241,8 +4286,8 @@
       <c r="F15" s="3">
         <v>0.0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>108</v>
+      <c r="G15" s="3">
+        <v>0.0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>109</v>
@@ -4259,13 +4304,16 @@
       <c r="M15" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="N15" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>250.0</v>
@@ -4279,8 +4327,8 @@
       <c r="F16" s="3">
         <v>0.0</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>115</v>
+      <c r="G16" s="3">
+        <v>0.0</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>116</v>
@@ -4294,13 +4342,16 @@
       <c r="L16" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="M16" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>225.0</v>
@@ -4314,8 +4365,8 @@
       <c r="F17" s="3">
         <v>0.0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>121</v>
+      <c r="G17" s="3">
+        <v>0.0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>122</v>
@@ -4332,13 +4383,16 @@
       <c r="M17" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="N17" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>225.0</v>
@@ -4352,8 +4406,8 @@
       <c r="F18" s="3">
         <v>0.0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>128</v>
+      <c r="G18" s="3">
+        <v>0.0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>129</v>
@@ -4370,13 +4424,16 @@
       <c r="M18" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>225.0</v>
@@ -4390,8 +4447,8 @@
       <c r="F19" s="3">
         <v>0.0</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>135</v>
+      <c r="G19" s="3">
+        <v>0.0</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>136</v>
@@ -4408,13 +4465,16 @@
       <c r="M19" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="N19" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>525.0</v>
@@ -4428,8 +4488,8 @@
       <c r="F20" s="3">
         <v>0.0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>142</v>
+      <c r="G20" s="3">
+        <v>0.0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>143</v>
@@ -4446,13 +4506,16 @@
       <c r="M20" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="N20" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>300.0</v>
@@ -4466,8 +4529,8 @@
       <c r="F21" s="3">
         <v>0.0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>149</v>
+      <c r="G21" s="3">
+        <v>0.0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>150</v>
@@ -4481,13 +4544,16 @@
       <c r="L21" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="M21" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>225.0</v>
@@ -4501,8 +4567,8 @@
       <c r="F22" s="3">
         <v>0.0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>155</v>
+      <c r="G22" s="3">
+        <v>0.0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>156</v>
@@ -4522,13 +4588,16 @@
       <c r="N22" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="O22" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>225.0</v>
@@ -4542,8 +4611,8 @@
       <c r="F23" s="3">
         <v>0.0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>163</v>
+      <c r="G23" s="3">
+        <v>0.0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>164</v>
@@ -4557,13 +4626,16 @@
       <c r="L23" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="M23" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3">
         <v>275.0</v>
@@ -4577,8 +4649,8 @@
       <c r="F24" s="3">
         <v>0.0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>169</v>
+      <c r="G24" s="3">
+        <v>0.0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>170</v>
@@ -4592,13 +4664,16 @@
       <c r="L24" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="M24" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <v>225.0</v>
@@ -4612,8 +4687,8 @@
       <c r="F25" s="3">
         <v>0.0</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>175</v>
+      <c r="G25" s="3">
+        <v>0.0</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>176</v>
@@ -4630,13 +4705,16 @@
       <c r="M25" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="N25" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3">
         <v>400.0</v>
@@ -4650,8 +4728,8 @@
       <c r="F26" s="3">
         <v>0.0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>182</v>
+      <c r="G26" s="3">
+        <v>0.0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>183</v>
@@ -4671,13 +4749,16 @@
       <c r="N26" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="O26" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3">
         <v>300.0</v>
@@ -4691,8 +4772,8 @@
       <c r="F27" s="3">
         <v>0.0</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>190</v>
+      <c r="G27" s="3">
+        <v>0.0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>191</v>
@@ -4706,13 +4787,16 @@
       <c r="L27" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="M27" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3">
         <v>400.0</v>
@@ -4726,8 +4810,8 @@
       <c r="F28" s="3">
         <v>0.0</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>196</v>
+      <c r="G28" s="3">
+        <v>0.0</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>197</v>
@@ -4741,13 +4825,16 @@
       <c r="L28" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="M28" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3">
         <v>750.0</v>
@@ -4761,8 +4848,8 @@
       <c r="F29" s="3">
         <v>0.0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>202</v>
+      <c r="G29" s="3">
+        <v>0.0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>203</v>
@@ -4776,13 +4863,16 @@
       <c r="L29" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="M29" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3">
         <v>350.0</v>
@@ -4796,8 +4886,8 @@
       <c r="F30" s="3">
         <v>0.0</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>208</v>
+      <c r="G30" s="3">
+        <v>0.0</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>209</v>
@@ -4811,13 +4901,16 @@
       <c r="L30" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="M30" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>250.0</v>
@@ -4831,8 +4924,8 @@
       <c r="F31" s="3">
         <v>0.0</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>214</v>
+      <c r="G31" s="3">
+        <v>0.0</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>215</v>
@@ -4846,13 +4939,16 @@
       <c r="L31" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="M31" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3">
         <v>250.0</v>
@@ -4866,8 +4962,8 @@
       <c r="F32" s="3">
         <v>0.0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>220</v>
+      <c r="G32" s="3">
+        <v>0.0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>221</v>
@@ -4881,13 +4977,16 @@
       <c r="L32" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="M32" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>225.0</v>
@@ -4901,8 +5000,8 @@
       <c r="F33" s="3">
         <v>0.0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>226</v>
+      <c r="G33" s="3">
+        <v>0.0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>227</v>
@@ -4919,13 +5018,16 @@
       <c r="M33" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="N33" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3">
         <v>125.0</v>
@@ -4939,8 +5041,8 @@
       <c r="F34" s="3">
         <v>0.0</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>233</v>
+      <c r="G34" s="3">
+        <v>0.0</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>234</v>
@@ -4954,13 +5056,16 @@
       <c r="L34" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="M34" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
         <v>225.0</v>
@@ -4974,8 +5079,8 @@
       <c r="F35" s="3">
         <v>0.0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>239</v>
+      <c r="G35" s="3">
+        <v>0.0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>240</v>
@@ -4992,13 +5097,16 @@
       <c r="M35" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="N35" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>175.0</v>
@@ -5012,8 +5120,8 @@
       <c r="F36" s="3">
         <v>0.0</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>246</v>
+      <c r="G36" s="3">
+        <v>0.0</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>247</v>
@@ -5024,13 +5132,16 @@
       <c r="K36" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="L36" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>250.0</v>
@@ -5044,8 +5155,8 @@
       <c r="F37" s="3">
         <v>0.0</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>251</v>
+      <c r="G37" s="3">
+        <v>0.0</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>252</v>
@@ -5062,13 +5173,16 @@
       <c r="M37" s="3" t="s">
         <v>256</v>
       </c>
+      <c r="N37" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>200.0</v>
@@ -5082,8 +5196,8 @@
       <c r="F38" s="3">
         <v>0.0</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>258</v>
+      <c r="G38" s="3">
+        <v>0.0</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>259</v>
@@ -5097,13 +5211,16 @@
       <c r="L38" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="M38" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>375.0</v>
@@ -5117,8 +5234,8 @@
       <c r="F39" s="3">
         <v>0.0</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>264</v>
+      <c r="G39" s="3">
+        <v>0.0</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>265</v>
@@ -5132,13 +5249,16 @@
       <c r="L39" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="M39" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3">
         <v>450.0</v>
@@ -5147,10 +5267,13 @@
         <v>150.0</v>
       </c>
       <c r="E40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="3">
         <v>175.0</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>271</v>
@@ -5167,13 +5290,16 @@
       <c r="M40" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="N40" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3">
         <v>325.0</v>
@@ -5187,8 +5313,8 @@
       <c r="F41" s="3">
         <v>0.0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>277</v>
+      <c r="G41" s="3">
+        <v>0.0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>278</v>
@@ -5205,13 +5331,16 @@
       <c r="M41" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N41" s="3" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3">
         <v>75.0</v>
@@ -5225,8 +5354,8 @@
       <c r="F42" s="3">
         <v>0.0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>284</v>
+      <c r="G42" s="3">
+        <v>0.0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>285</v>
@@ -5242,6 +5371,9 @@
       </c>
       <c r="M42" s="3" t="s">
         <v>289</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5278,28 +5410,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
@@ -5321,5861 +5453,5861 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H88" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H92" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H93" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H99" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H111" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H117" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H126" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H132" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H135" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H160" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H168" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H181" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G228" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H228" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="H229" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -11201,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11230,77 +11362,77 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
